--- a/AE PyDev.extension/AE pyTools.Tab/Developer.panel/develop1.stack/Family.pulldown/Add Elec Params to Mech.pushbutton/CED Elec Circuit Params.xlsx
+++ b/AE PyDev.extension/AE pyTools.Tab/Developer.panel/develop1.stack/Family.pulldown/Add Elec Params to Mech.pushbutton/CED Elec Circuit Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aevelina\CED_Extensions\AE PyDev.extension\AE pyTools.Tab\Developer.panel\develop1.stack\Family.pulldown\Add Elec Params to Mech.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC4E57F-532A-4740-BF59-60DB58034189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7445FC1-0DE3-4228-B8F5-617223BB00EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10815" yWindow="4410" windowWidth="28695" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter List" sheetId="1" r:id="rId1"/>
@@ -1042,9 +1042,6 @@
     <t>Circuit Group</t>
   </si>
   <si>
-    <t>(Circuit 1 Voltage_CED * Circuit 1 FLA_CED)/sqrt(Circuit 1 Phase_CED)</t>
-  </si>
-  <si>
     <t>(Circuit 2 Voltage_CED * Circuit 2 FLA_CED)/sqrt(Circuit 2 Phase_CED)</t>
   </si>
   <si>
@@ -1070,6 +1067,9 @@
   </si>
   <si>
     <t xml:space="preserve"> if(Circuit 5 Phase_CED = 3, 3,if(or(Circuit 5 Voltage_CED = 208, Circuit 5 Voltage_CED = 240, Circuit 5 Voltage_CED = 480,Circuit 5 Voltage_CED = 230,Circuit 5 Voltage_CED = 460), 2, 1))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if(Power Connection Required,(Circuit 1 Voltage_CED * Circuit 1 FLA_CED) * (if(Circuit 1 Phase_CED = 3, 1.732051, 1)),0)</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1530,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I55"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>27</v>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>27</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>27</v>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>27</v>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>27</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>27</v>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>27</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>27</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>27</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>27</v>
